--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3471561.185945576</v>
+        <v>3489935.875411697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5736554365940264</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>101.0443857204378</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>54.42397186352292</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>39.58626266897635</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>2.820020409871454</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>109.0522721046913</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>81.73375972274962</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>216.832772278366</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>297.5505666017721</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.11999173551387</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>82.92375604299559</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.3540670460874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.9497581783795</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>62.742365442944</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.52719342485424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>175.0417617269808</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.2407853566995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>53.94578546114897</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.0213670654584</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>114.3785572711819</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>128.4285848360766</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.58147825544498</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,13 +3007,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y34" t="n">
-        <v>160.5099371138725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>18.03006671577479</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3439,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>76.72568050405084</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3554,13 +3554,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>33.35146980185877</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.65680676724968</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>121.4251073194097</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>56.669814111543</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1370.74598339128</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757143</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9166907734179</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036576</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036576</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036576</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4559,19 +4559,19 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2355.789103656128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.8312459770189</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
         <v>190.2718927217162</v>
@@ -4720,55 +4720,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770189</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770189</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1336.914798597273</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2471.355450064197</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2140.292562720626</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>2140.292562720626</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.292562720626</v>
+        <v>2092.477155601807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>2092.477155601807</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>137.7043515607641</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>137.7043515607641</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5048,19 +5048,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2032.925401907738</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2312.465467126435</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.423997082767</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.6314179392372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,10 +5264,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5285,19 +5285,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>1912.313820009359</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5595,25 +5595,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>698.8634468392138</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1006.183580119176</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.046207783208</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1942894808745</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.156678913841</v>
+        <v>787.3258814945024</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.156678913841</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.842754311114</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,10 +5777,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954967</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3900.968876153746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3925.360448591583</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.360448591583</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.243809179247</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1444.425578172903</v>
       </c>
       <c r="T25" t="n">
-        <v>4549.85945949167</v>
+        <v>1444.425578172903</v>
       </c>
       <c r="U25" t="n">
-        <v>4549.85945949167</v>
+        <v>1444.425578172903</v>
       </c>
       <c r="V25" t="n">
-        <v>4549.85945949167</v>
+        <v>1444.425578172903</v>
       </c>
       <c r="W25" t="n">
-        <v>4260.44228945471</v>
+        <v>1155.008408135943</v>
       </c>
       <c r="X25" t="n">
-        <v>4032.452738556693</v>
+        <v>927.0188572379254</v>
       </c>
       <c r="Y25" t="n">
-        <v>3925.360448591583</v>
+        <v>706.2262780943953</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.4609007520348</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>492.4609007520348</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D28" t="n">
-        <v>492.4609007520348</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520348</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y28" t="n">
-        <v>492.4609007520348</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1365.031593124329</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.246177913835</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>852.117539127393</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>852.117539127393</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>562.7003690904323</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3190.928350499667</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3959.296496892129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3865.493026375031</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>3865.493026375031</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>3865.493026375031</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3717.579932792637</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4027.624275985003</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4027.624275985003</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y34" t="n">
-        <v>3865.493026375031</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,7 +6929,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="C37" t="n">
-        <v>751.4342788065931</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D37" t="n">
-        <v>601.3176393942573</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>601.3176393942573</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>454.4276918963469</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>286.2523702161675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7123,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7163,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,13 +7248,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>953.6472828615138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169051</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7667,31 +7667,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L45" t="n">
-        <v>921.193690363625</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="D46" t="n">
-        <v>415.810421592522</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="E46" t="n">
-        <v>415.810421592522</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F46" t="n">
-        <v>415.810421592522</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602859</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1265.189543564769</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>1041.404128354275</v>
+        <v>4603.692326453539</v>
       </c>
       <c r="U46" t="n">
-        <v>1041.404128354275</v>
+        <v>4603.692326453539</v>
       </c>
       <c r="V46" t="n">
-        <v>786.7196401483878</v>
+        <v>4603.692326453539</v>
       </c>
       <c r="W46" t="n">
-        <v>786.7196401483878</v>
+        <v>4314.275156416578</v>
       </c>
       <c r="X46" t="n">
-        <v>786.7196401483878</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.9270610048577</v>
+        <v>3865.493026375031</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360585</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.14409596997041</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P15" t="n">
-        <v>213.2603911806629</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>165.9802687929761</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>182.0340742867933</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>50.6266194094361</v>
+        <v>145.2351313103792</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>158.8724419039315</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>358.3520020925042</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>158.8724419039329</v>
+        <v>32.78140656352406</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599076</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>19.14409596997041</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>16.6657148398329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>158.8051956154453</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.0574599272406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>111.1955906715966</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.3438679953953</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.0824928447104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>143.9750245224543</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.5632862866363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.05540537538724</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>69.49222514752663</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>175.3393317281583</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.07471623822232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>149.2167543828531</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.18814786348528</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>133.1420986615188</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.17517341468762</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>76.49570266419353</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>164.8777469468463</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="K2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="M2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="N2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="O2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029914</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,10 +26497,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110908.4628853675</v>
+        <v>-108380.1417219253</v>
       </c>
       <c r="C6" t="n">
-        <v>479059.416329177</v>
+        <v>481587.7374926196</v>
       </c>
       <c r="D6" t="n">
-        <v>479059.4163291765</v>
+        <v>481587.7374926195</v>
       </c>
       <c r="E6" t="n">
-        <v>55366.58031196342</v>
+        <v>57401.39954996124</v>
       </c>
       <c r="F6" t="n">
-        <v>580526.6167888598</v>
+        <v>582561.4360268567</v>
       </c>
       <c r="G6" t="n">
-        <v>580526.6167888601</v>
+        <v>582561.4360268571</v>
       </c>
       <c r="H6" t="n">
-        <v>580526.6167888601</v>
+        <v>582561.436026857</v>
       </c>
       <c r="I6" t="n">
-        <v>580526.6167888602</v>
+        <v>582561.4360268572</v>
       </c>
       <c r="J6" t="n">
-        <v>404103.3975962671</v>
+        <v>406138.2168342642</v>
       </c>
       <c r="K6" t="n">
-        <v>580526.6167888603</v>
+        <v>582561.4360268572</v>
       </c>
       <c r="L6" t="n">
-        <v>580526.6167888605</v>
+        <v>582561.4360268568</v>
       </c>
       <c r="M6" t="n">
-        <v>445725.6015550229</v>
+        <v>447760.42079302</v>
       </c>
       <c r="N6" t="n">
-        <v>580526.6167888603</v>
+        <v>582561.4360268569</v>
       </c>
       <c r="O6" t="n">
-        <v>580526.6167888599</v>
+        <v>582561.4360268569</v>
       </c>
       <c r="P6" t="n">
-        <v>580526.6167888602</v>
+        <v>582561.436026857</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.1601862268865</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>253.6386559002451</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>112.8228492351049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>107.0789293111815</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>362.4528713611361</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>260.6788285737778</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>85.51306137587821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.202333179718295</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>57.1324750189109</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>202.1041757727754</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>73.24713279879953</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.2305863060074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31279,10 +31279,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>226.2375109014951</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P15" t="n">
-        <v>420.3538061121876</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>415.2379737490004</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>532.9342021211282</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>464.3977765279014</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>299.8843243654604</v>
+        <v>394.4928362664036</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>408.1301468599559</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>691.5465754905172</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>408.1301468599572</v>
+        <v>282.0391115195484</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502078</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>329.5684730204367</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3558448.53018479</v>
+        <v>3563387.793033822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>212.1370054753146</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.89282023171169</v>
+        <v>51.1617195532427</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4999250892032</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>110.0068855298933</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>150.8400357509153</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733176</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>37.34995075181404</v>
+        <v>240.6778159615945</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>27.26009267756244</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>220.2803460863045</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.5843930538365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>149.2188053444241</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>123.3771255379762</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.85017494300114</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>140.0680651027552</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>96.84207451769325</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>195.5559609429028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.7444020895362</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C5" t="n">
-        <v>885.7444020895362</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="D5" t="n">
-        <v>885.7444020895362</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="E5" t="n">
-        <v>499.9561494912919</v>
+        <v>126.4903912302121</v>
       </c>
       <c r="F5" t="n">
-        <v>88.97024470168435</v>
+        <v>119.5448904810086</v>
       </c>
       <c r="G5" t="n">
-        <v>75.04684064027525</v>
+        <v>105.6214864195995</v>
       </c>
       <c r="H5" t="n">
-        <v>75.04684064027525</v>
+        <v>105.6214864195995</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153658</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.4038777286581</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="C7" t="n">
-        <v>471.4038777286581</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="D7" t="n">
-        <v>321.2872383163224</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="E7" t="n">
-        <v>321.2872383163224</v>
+        <v>322.8094205796457</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>322.8094205796457</v>
       </c>
       <c r="G7" t="n">
         <v>211.6913543878343</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286581</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286581</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4795,55 +4795,55 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785277</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661919</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837988</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858884</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1037.48362228133</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="V13" t="n">
-        <v>782.7991340754431</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W13" t="n">
-        <v>493.3819640384826</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X13" t="n">
-        <v>265.3924131404652</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5363,19 +5363,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5706,16 +5706,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5734,31 +5734,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1037.195091030811</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>748.0664522443694</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>493.3819640384826</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>493.3819640384826</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,37 +6214,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6411,19 +6411,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>155.6516116047315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>558.0926555785013</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>337.3000764349712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1306.193495155475</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7125,7 +7125,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>293.9874647357258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>147.0975172378155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7420,13 +7420,13 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.5899330013834</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013834</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>385.5899330013834</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.5899330013834</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028587</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>195.0373687508851</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>32.78140656352406</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.30006332127833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>62.79465928983183</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928345</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>248.8874016467633</v>
+        <v>45.55953643698285</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.2629056590285</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>5.429309302732605</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.125262335200631</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>72.32875571396519</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>163.1458727986148</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.6433935203764</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>117.1119469436233</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>6.365897543813929</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>90.96703739368823</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693265.1534158316</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="9">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
         <v>703852.307527876</v>
@@ -26346,16 +26346,16 @@
         <v>703852.3075278759</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230234</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219255</v>
+        <v>-108380.1417219253</v>
       </c>
       <c r="C6" t="n">
-        <v>481587.7374926194</v>
+        <v>481587.7374926192</v>
       </c>
       <c r="D6" t="n">
-        <v>481587.7374926194</v>
+        <v>481587.7374926188</v>
       </c>
       <c r="E6" t="n">
-        <v>56426.80829023952</v>
+        <v>57303.94042398884</v>
       </c>
       <c r="F6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008851</v>
       </c>
       <c r="G6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="H6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="I6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="J6" t="n">
-        <v>405163.6255745425</v>
+        <v>406040.757708292</v>
       </c>
       <c r="K6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="L6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008848</v>
       </c>
       <c r="M6" t="n">
-        <v>446785.829533298</v>
+        <v>447662.9616670473</v>
       </c>
       <c r="N6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008848</v>
       </c>
       <c r="O6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="P6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008851</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>157.5940952031544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>131.0384960131496</v>
+        <v>100.7695966916185</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.92112293372807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>57.30291672915766</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>218.8910649275537</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717192</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>75.23878421646985</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>282.0391115195484</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>269.8880742213565</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
